--- a/biology/Zoologie/Couleuvre_de_Montpellier/Couleuvre_de_Montpellier.xlsx
+++ b/biology/Zoologie/Couleuvre_de_Montpellier/Couleuvre_de_Montpellier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Malpolon monspessulanus
-La Couleuvre de Montpellier, Malpolon monspessulanus, est une espèce de serpents de la famille des Lamprophiidae[1].
+La Couleuvre de Montpellier, Malpolon monspessulanus, est une espèce de serpents de la famille des Lamprophiidae.
 </t>
         </is>
       </c>
@@ -514,9 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Généralités
-C'est un grand serpent qui peut atteindre une taille totale de 2,55 m, bien qu'il ne dépasse qu'exceptionnellement la taille de 2 m[2], ce qui en fait le serpent le plus grand d'Europe[3]. Le corps est svelte et la tête étroite[4]. Le dimorphisme sexuel est très important. Les mâles sont généralement plus grands et imposants que les femelles, avec une taille moyenne d'environ 2 m contre 1,3 m.
-La Couleuvre de Montpellier a une coloration allant du brun au verdâtre, avec le ventre jaune uni[5]. Le mâle porte sur le tiers antérieur, une « selle » noire très nette plus ou moins étendue[6].
+          <t>Généralités</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un grand serpent qui peut atteindre une taille totale de 2,55 m, bien qu'il ne dépasse qu'exceptionnellement la taille de 2 m, ce qui en fait le serpent le plus grand d'Europe. Le corps est svelte et la tête étroite. Le dimorphisme sexuel est très important. Les mâles sont généralement plus grands et imposants que les femelles, avec une taille moyenne d'environ 2 m contre 1,3 m.
+La Couleuvre de Montpellier a une coloration allant du brun au verdâtre, avec le ventre jaune uni. Le mâle porte sur le tiers antérieur, une « selle » noire très nette plus ou moins étendue.
 </t>
         </is>
       </c>
@@ -547,16 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Généralités
-C'est un serpent diurne. Sa densité est généralement d'environ dix individus par hectare[7].
-Appareil venimeux
-Elle est une des couleuvres présentes en France. Elle ne possède pas de crochets fonctionnant comme ceux de la vipère. Ses crochets, peu mobiles, sont situés au fond de la mâchoire supérieure (elle est dite opisthoglyphe) et sont cannelés. Ils ne fonctionnent pas à la manière d'une seringue.
-Alimentation
-Son alimentation est constituée de lézards (comme Psammodromus algirus ou même des lézards ocellés de taille adulte[8]), de serpents (comme Rhinechis scalaris ou Hemorrhois hippocrepis), d'oiseaux ou de petits mammifères (muridés, lapereaux...). Le venin tue la proie lentement, en vingt-quatre ou quarante-huit heures[9]. La Couleuvre de Montpellier chasse à vue.
-Cycle de vie et reproduction
-Cette couleuvre se reproduit d'avril à juin, les femelles pondant de 4 à 14 œufs sous un tas de feuilles ou de pierres. Les œufs éclosent généralement au bout de 2 mois, les nouveau-nés mesurant de 20 à 35 cm. La maturité sexuelle est atteinte au bout de 3 à 5 ans.
-Comportement de défense
-Si elle est acculée ou se sent en danger, elle peut parfois se dresser comme un cobra, souffler fortement pour impressionner son adversaire et, en dernier ressort, se rebiffer et mordre. Bien qu'elle soit venimeuse, le fait qu'elle possède une dentition opisthoglyphe la rend généralement inoffensive pour l'Homme[10] bien que des cas d'envenimations aient été observés[11]. Ceci arrive dans des circonstances exceptionnelles, notamment si un doigt est inséré profondément dans la gorge du serpent[12]. Dans un tel cas, la morsure s'accompagne d'une inflammation locale et de douleur, d'œdème et/ou de lymphangite, voire des symptômes neurologiques (paresthésie, dysphagie, ptôsis ou dyspnée) ou, exceptionnellement, d'une paralysie[13]. Ces effets sont néanmoins passagers même si la guérison peut prendre plusieurs jours[14],[12].
+          <t>Généralités</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent diurne. Sa densité est généralement d'environ dix individus par hectare.
 </t>
         </is>
       </c>
@@ -582,14 +596,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Biologie et éthologie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce se rencontre sur le pourtour méditerranéen : au Portugal, en Espagne, au sud-est de la France et au nord-ouest de l'Italie (Ligurie), ainsi qu'au Sahara occidental et nord de l'Algérie et du Maroc[15].
-Habitat
-C’est un serpent qui préfère les terrains secs et rocailleux dans lesquels il pourra avoir de nombreuses cachettes pour se réfugier. On peut observer la couleuvre de Montpellier également dans des forêts de chênes verts, à proximité de points d’eau ou encore dans les prairies.
+          <t>Appareil venimeux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est une des couleuvres présentes en France. Elle ne possède pas de crochets fonctionnant comme ceux de la vipère. Ses crochets, peu mobiles, sont situés au fond de la mâchoire supérieure (elle est dite opisthoglyphe) et sont cannelés. Ils ne fonctionnent pas à la manière d'une seringue.
 </t>
         </is>
       </c>
@@ -615,15 +633,236 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie et éthologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son alimentation est constituée de lézards (comme Psammodromus algirus ou même des lézards ocellés de taille adulte), de serpents (comme Rhinechis scalaris ou Hemorrhois hippocrepis), d'oiseaux ou de petits mammifères (muridés, lapereaux...). Le venin tue la proie lentement, en vingt-quatre ou quarante-huit heures. La Couleuvre de Montpellier chasse à vue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Couleuvre_de_Montpellier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Couleuvre_de_Montpellier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie et éthologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cycle de vie et reproduction</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette couleuvre se reproduit d'avril à juin, les femelles pondant de 4 à 14 œufs sous un tas de feuilles ou de pierres. Les œufs éclosent généralement au bout de 2 mois, les nouveau-nés mesurant de 20 à 35 cm. La maturité sexuelle est atteinte au bout de 3 à 5 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Couleuvre_de_Montpellier</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Couleuvre_de_Montpellier</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie et éthologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Comportement de défense</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si elle est acculée ou se sent en danger, elle peut parfois se dresser comme un cobra, souffler fortement pour impressionner son adversaire et, en dernier ressort, se rebiffer et mordre. Bien qu'elle soit venimeuse, le fait qu'elle possède une dentition opisthoglyphe la rend généralement inoffensive pour l'Homme bien que des cas d'envenimations aient été observés. Ceci arrive dans des circonstances exceptionnelles, notamment si un doigt est inséré profondément dans la gorge du serpent. Dans un tel cas, la morsure s'accompagne d'une inflammation locale et de douleur, d'œdème et/ou de lymphangite, voire des symptômes neurologiques (paresthésie, dysphagie, ptôsis ou dyspnée) ou, exceptionnellement, d'une paralysie. Ces effets sont néanmoins passagers même si la guérison peut prendre plusieurs jours,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Couleuvre_de_Montpellier</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Couleuvre_de_Montpellier</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre sur le pourtour méditerranéen : au Portugal, en Espagne, au sud-est de la France et au nord-ouest de l'Italie (Ligurie), ainsi qu'au Sahara occidental et nord de l'Algérie et du Maroc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Couleuvre_de_Montpellier</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Couleuvre_de_Montpellier</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est un serpent qui préfère les terrains secs et rocailleux dans lesquels il pourra avoir de nombreuses cachettes pour se réfugier. On peut observer la couleuvre de Montpellier également dans des forêts de chênes verts, à proximité de points d’eau ou encore dans les prairies.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Couleuvre_de_Montpellier</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Couleuvre_de_Montpellier</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Taxinomie et sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Étymologie
-Son nom spécifique, monspessulanus, vient de la latinisation de Montpellier[1],[16].
-Liste des sous-espèces
-Selon The Reptile Database   (15 déc. 2011)[17] :
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, monspessulanus, vient de la latinisation de Montpellier,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Couleuvre_de_Montpellier</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Couleuvre_de_Montpellier</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Taxinomie et sous-espèces</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Reptile Database   (15 déc. 2011) :
 Malpolon monspessulanus monspessulanus (Hermann, 1804)
 Malpolon monspessulanus saharatlanticus Geniez, Cluchier &amp; De Haan, 2006
 La sous-espèce Malpolon monspessulanus insignitus (Geoffroy de St-Hilaire, 1809) a été élevé au rang d'espèce sous le nom de Malpolon insignitus, et la sous-espèce Malpolon monspessulanus fuscus  est devenue une sous-espèce de cette dernière.
@@ -631,34 +870,39 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Couleuvre_de_Montpellier</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Couleuvre_de_Montpellier</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Couleuvre_de_Montpellier</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Couleuvre_de_Montpellier</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>La Couleuvre de Montpellier et l'Humain</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Protection
-Malpolon monspessulanus figure en annexe III de la convention de Berne de 1982, ce qui signifie qu'elle fait partie des espèces de faune protégées en Europe[18],[19]. 
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malpolon monspessulanus figure en annexe III de la convention de Berne de 1982, ce qui signifie qu'elle fait partie des espèces de faune protégées en Europe,. 
 </t>
         </is>
       </c>
